--- a/docs/comparacionjuego.xlsx
+++ b/docs/comparacionjuego.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01-2023\sistemasInteligentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01-2023\sistemasInteligentes\juegov2\teeko-intelligent-game\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9888FBF-EDDE-4374-AFAB-E9C9CB524500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21702E17-C359-40DB-9ED3-2E919C0AA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{235A4877-0416-46CD-8847-47A3DDB16E02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Estados expandidos</t>
   </si>
@@ -46,12 +46,51 @@
   <si>
     <t>Numero de turno</t>
   </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>ESTADOS EXPANDIDIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPTH = 3 </t>
+  </si>
+  <si>
+    <t>TURNO VS ESTADOS EXPANDIDOS</t>
+  </si>
+  <si>
+    <t>TURNO VS NUMERO DE PODAS</t>
+  </si>
+  <si>
+    <t>Cantidad Podas</t>
+  </si>
+  <si>
+    <t>CANTIDAD PODAS</t>
+  </si>
+  <si>
+    <t>Por derecha</t>
+  </si>
+  <si>
+    <t>¿Por qué existe una diferencia?</t>
+  </si>
+  <si>
+    <t>En el algoritmo alfa-beta, se trata de minimizar el número de nodos que se deben explorar, por lo que si se exploran primero los nodos que conducen a soluciones subóptimas, se puede producir una mayor cantidad de podas y, por lo tanto, una reducción en el número total de nodos explorados.</t>
+  </si>
+  <si>
+    <t>Por Izquierda</t>
+  </si>
+  <si>
+    <t>PODAS POR IZQUIERDA</t>
+  </si>
+  <si>
+    <t>PODAS POR DERECHA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +98,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -76,12 +168,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +484,2230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$4:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>818.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>608.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>736.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>818.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$4:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-5F30-4103-BC1E-E8D916829DF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540617104"/>
+        <c:axId val="540613864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540617104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-BO"/>
+                  <a:t>ESTADOS EXPANDIDOS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-BO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-BO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540613864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540613864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-BO"/>
+                  <a:t>TURNO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-BO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-BO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540617104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-BO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CANTIDAD PODAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$40:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>34.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$40:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-811F-44EE-8C8D-B19AF891ADD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$62:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$62:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-811F-44EE-8C8D-B19AF891ADD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540607744"/>
+        <c:axId val="540608104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540607744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-BO"/>
+                  <a:t>CANTIDAD DE PODAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-BO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-BO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540608104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540608104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-BO"/>
+                  <a:t>TURNO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-BO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-BO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540607744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-BO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4CFD45-02CD-4C9B-127A-6AC090B98D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBED9767-96BF-D799-34CD-CF851EBE0DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D8F09D-F77E-34E1-1236-AD3CA257F334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="7267575"/>
+          <a:ext cx="2400000" cy="2247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,83 +3007,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A437AE4-4FF7-4AFB-AB61-D4B6B92C9904}">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="27">
+        <v>215</v>
+      </c>
+      <c r="F4" s="22">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="G4" s="25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" s="28">
+        <v>535</v>
+      </c>
+      <c r="F5" s="23">
+        <v>2</v>
+      </c>
+      <c r="G5" s="25">
+        <f>AVERAGE(C4,C13,C24)</f>
+        <v>310.33333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>5981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" s="28">
+        <v>427</v>
+      </c>
+      <c r="F6" s="23">
+        <v>3</v>
+      </c>
+      <c r="G6" s="25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1035</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4</v>
+      </c>
+      <c r="G7" s="25">
+        <f>AVERAGE(C5,C14,C25)</f>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="28">
+        <v>272</v>
+      </c>
+      <c r="F8" s="23">
+        <v>5</v>
+      </c>
+      <c r="G8" s="25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>12</v>
+      </c>
+      <c r="C9" s="28">
+        <v>533</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="25">
+        <f>AVERAGE(C6,C15,C26)</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14</v>
+      </c>
+      <c r="C10" s="28">
+        <v>435</v>
+      </c>
+      <c r="F10" s="23">
+        <v>7</v>
+      </c>
+      <c r="G10" s="25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>16</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1016</v>
+      </c>
+      <c r="F11" s="23">
+        <v>8</v>
+      </c>
+      <c r="G11" s="25">
+        <f>AVERAGE(C7,C16,C27)</f>
+        <v>818.33333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1270</v>
+      </c>
+      <c r="F12" s="23">
+        <v>9</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B13" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C13" s="30">
+        <v>265</v>
+      </c>
+      <c r="F13" s="23">
+        <v>10</v>
+      </c>
+      <c r="G13" s="25">
+        <f>AVERAGE(C8,C28,C17)</f>
+        <v>366.66666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="31">
+        <v>420</v>
+      </c>
+      <c r="F14" s="23">
+        <v>11</v>
+      </c>
+      <c r="G14" s="25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="31">
+        <v>492</v>
+      </c>
+      <c r="F15" s="23">
+        <v>12</v>
+      </c>
+      <c r="G15" s="25">
+        <f>AVERAGE(C9,C29)</f>
+        <v>608.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8</v>
+      </c>
+      <c r="C16" s="31">
+        <v>724</v>
+      </c>
+      <c r="F16" s="23">
+        <v>14</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" ref="G16:G17" si="0">AVERAGE(C10,C30)</f>
+        <v>736.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16">
+        <v>10</v>
+      </c>
+      <c r="C17" s="32">
+        <v>371</v>
+      </c>
+      <c r="F17" s="23">
+        <v>16</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="0"/>
+        <v>818.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>3</v>
       </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33">
+        <v>393</v>
+      </c>
+      <c r="F18" s="24">
+        <v>18</v>
+      </c>
+      <c r="G18" s="26">
+        <f>AVERAGE(C12,C32)</f>
+        <v>884.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="34">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9">
+        <v>5</v>
+      </c>
+      <c r="C20" s="34">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="34">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="41">
+        <v>3</v>
+      </c>
+      <c r="B23" s="42">
+        <v>11</v>
+      </c>
+      <c r="C23" s="43">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>4</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>4</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10">
+        <v>6</v>
+      </c>
+      <c r="C26" s="35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8</v>
+      </c>
+      <c r="C27" s="35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10">
+        <v>10</v>
+      </c>
+      <c r="C28" s="35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>4</v>
+      </c>
+      <c r="B29" s="10">
+        <v>12</v>
+      </c>
+      <c r="C29" s="35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>4</v>
+      </c>
+      <c r="B30" s="10">
+        <v>14</v>
+      </c>
+      <c r="C30" s="35">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>4</v>
+      </c>
+      <c r="B31" s="10">
+        <v>16</v>
+      </c>
+      <c r="C31" s="35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11">
+        <v>18</v>
+      </c>
+      <c r="C32" s="36">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="27">
+        <v>22</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="25">
+        <f>AVERAGE(C45,C49,)</f>
+        <v>34.666666666666664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4</v>
+      </c>
+      <c r="C41" s="28">
+        <v>40</v>
+      </c>
+      <c r="F41" s="23">
+        <v>2</v>
+      </c>
+      <c r="G41" s="44">
+        <f>AVERAGE(C40,C53)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+      <c r="C42" s="28">
+        <v>56</v>
+      </c>
+      <c r="F42" s="23">
+        <v>3</v>
+      </c>
+      <c r="G42" s="25">
+        <f>AVERAGE(C46,C50)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6">
+        <v>8</v>
+      </c>
+      <c r="C43" s="28">
+        <v>42</v>
+      </c>
+      <c r="F43" s="23">
+        <v>4</v>
+      </c>
+      <c r="G43" s="25">
+        <f>AVERAGE(C41,C54)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6">
+        <v>10</v>
+      </c>
+      <c r="C44" s="28">
+        <v>23</v>
+      </c>
+      <c r="F44" s="23">
+        <v>5</v>
+      </c>
+      <c r="G44" s="25">
+        <f>AVERAGE(C47,C51)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>2</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="30">
+        <v>52</v>
+      </c>
+      <c r="F45" s="23">
+        <v>6</v>
+      </c>
+      <c r="G45" s="25">
+        <f>AVERAGE(C42,C55)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>2</v>
+      </c>
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46" s="31">
+        <v>40</v>
+      </c>
+      <c r="F46" s="23">
+        <v>7</v>
+      </c>
+      <c r="G46" s="25">
+        <f>AVERAGE(C48,C52)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8">
+        <v>5</v>
+      </c>
+      <c r="C47" s="31">
+        <v>59</v>
+      </c>
+      <c r="F47" s="23">
+        <v>8</v>
+      </c>
+      <c r="G47" s="25">
+        <f>AVERAGE(C43,C56)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8">
+        <v>7</v>
+      </c>
+      <c r="C48" s="31">
+        <v>33</v>
+      </c>
+      <c r="F48" s="23">
+        <v>10</v>
+      </c>
+      <c r="G48" s="47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>3</v>
+      </c>
+      <c r="B49" s="18">
+        <v>1</v>
+      </c>
+      <c r="C49" s="33">
+        <v>52</v>
+      </c>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>3</v>
+      </c>
+      <c r="C50" s="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9">
+        <v>5</v>
+      </c>
+      <c r="C51" s="34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="41">
+        <v>3</v>
+      </c>
+      <c r="B52" s="42">
+        <v>7</v>
+      </c>
+      <c r="C52" s="43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>4</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
+      <c r="C53" s="35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>4</v>
+      </c>
+      <c r="B54" s="10">
+        <v>4</v>
+      </c>
+      <c r="C54" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>4</v>
+      </c>
+      <c r="B55" s="10">
+        <v>6</v>
+      </c>
+      <c r="C55" s="35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>4</v>
+      </c>
+      <c r="B56" s="11">
+        <v>8</v>
+      </c>
+      <c r="C56" s="36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="27">
+        <v>38</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1</v>
+      </c>
+      <c r="G62" s="45">
+        <f>AVERAGE(C62,C65,C75)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1</v>
+      </c>
+      <c r="B63" s="6">
+        <v>3</v>
+      </c>
+      <c r="C63" s="28">
+        <v>28</v>
+      </c>
+      <c r="F63" s="23">
+        <v>2</v>
+      </c>
+      <c r="G63" s="58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6">
+        <v>5</v>
+      </c>
+      <c r="C64" s="28">
+        <v>22</v>
+      </c>
+      <c r="F64" s="23">
+        <v>3</v>
+      </c>
+      <c r="G64" s="44">
+        <f>AVERAGE(C63,C66,C76)</f>
+        <v>50.333333333333336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="48">
+        <v>2</v>
+      </c>
+      <c r="B65" s="49">
+        <v>1</v>
+      </c>
+      <c r="C65" s="50">
+        <v>44</v>
+      </c>
+      <c r="F65" s="23">
+        <v>4</v>
+      </c>
+      <c r="G65" s="58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="51">
+        <v>2</v>
+      </c>
+      <c r="B66" s="52">
+        <v>3</v>
+      </c>
+      <c r="C66" s="53">
+        <v>42</v>
+      </c>
+      <c r="F66" s="23">
+        <v>5</v>
+      </c>
+      <c r="G66" s="44">
+        <f>AVERAGE(C64,C67,C77)</f>
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="51">
+        <v>2</v>
+      </c>
+      <c r="B67" s="52">
+        <v>5</v>
+      </c>
+      <c r="C67" s="53">
+        <v>51</v>
+      </c>
+      <c r="F67" s="23">
+        <v>6</v>
+      </c>
+      <c r="G67" s="58">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="51">
+        <v>2</v>
+      </c>
+      <c r="B68" s="52">
+        <v>7</v>
+      </c>
+      <c r="C68" s="53">
+        <v>52</v>
+      </c>
+      <c r="F68" s="23">
+        <v>7</v>
+      </c>
+      <c r="G68" s="44">
+        <f>AVERAGE(C68,C78)</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="51">
+        <v>2</v>
+      </c>
+      <c r="B69" s="52">
+        <v>9</v>
+      </c>
+      <c r="C69" s="53">
+        <v>65</v>
+      </c>
+      <c r="F69" s="23">
+        <v>8</v>
+      </c>
+      <c r="G69" s="58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="54">
+        <v>2</v>
+      </c>
+      <c r="B70" s="55">
+        <v>11</v>
+      </c>
+      <c r="C70" s="56">
+        <v>40</v>
+      </c>
+      <c r="F70" s="23">
+        <v>9</v>
+      </c>
+      <c r="G70" s="58">
+        <f>AVERAGE(C69,C79)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>3</v>
+      </c>
+      <c r="B71" s="18">
+        <v>2</v>
+      </c>
+      <c r="C71" s="33">
+        <v>47</v>
+      </c>
+      <c r="F71" s="24">
+        <v>11</v>
+      </c>
+      <c r="G71" s="59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
+        <v>3</v>
+      </c>
+      <c r="B72" s="9">
+        <v>4</v>
+      </c>
+      <c r="C72" s="34">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="19">
+        <v>3</v>
+      </c>
+      <c r="B73" s="9">
+        <v>6</v>
+      </c>
+      <c r="C73" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="41">
+        <v>3</v>
+      </c>
+      <c r="B74" s="42">
+        <v>8</v>
+      </c>
+      <c r="C74" s="43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="20">
+        <v>4</v>
+      </c>
+      <c r="B75" s="10">
+        <v>1</v>
+      </c>
+      <c r="C75" s="35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="20">
+        <v>4</v>
+      </c>
+      <c r="B76" s="10">
+        <v>3</v>
+      </c>
+      <c r="C76" s="35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="20">
+        <v>4</v>
+      </c>
+      <c r="B77" s="10">
+        <v>5</v>
+      </c>
+      <c r="C77" s="35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
+        <v>4</v>
+      </c>
+      <c r="B78" s="10">
+        <v>7</v>
+      </c>
+      <c r="C78" s="35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>4</v>
+      </c>
+      <c r="B79" s="11">
+        <v>9</v>
+      </c>
+      <c r="C79" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A83:H87"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>